--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Proc-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Proc-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Tek</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H2">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I2">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.63918933333334</v>
+        <v>49.248769</v>
       </c>
       <c r="N2">
-        <v>175.917568</v>
+        <v>147.746307</v>
       </c>
       <c r="O2">
-        <v>0.9153206706690767</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="P2">
-        <v>0.923685878527411</v>
+        <v>0.9115269283167855</v>
       </c>
       <c r="Q2">
-        <v>16.18615588528356</v>
+        <v>13.631468273972</v>
       </c>
       <c r="R2">
-        <v>145.675402967552</v>
+        <v>122.683214465748</v>
       </c>
       <c r="S2">
-        <v>0.4570325350514516</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="T2">
-        <v>0.4612094014505598</v>
+        <v>0.9115269283167855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H3">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I3">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>10.817043</v>
       </c>
       <c r="O3">
-        <v>0.05628240070608662</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="P3">
-        <v>0.0567967712384688</v>
+        <v>0.0667361924603678</v>
       </c>
       <c r="Q3">
-        <v>0.9952749245363334</v>
+        <v>0.998009232628</v>
       </c>
       <c r="R3">
-        <v>8.957474320827</v>
+        <v>8.982083093651999</v>
       </c>
       <c r="S3">
-        <v>0.02810259737134701</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="T3">
-        <v>0.02835942984099784</v>
+        <v>0.0667361924603678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.276788</v>
+      </c>
+      <c r="H4">
+        <v>0.830364</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.2760296666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.828089</v>
-      </c>
-      <c r="I4">
-        <v>0.4993141198454222</v>
-      </c>
-      <c r="J4">
-        <v>0.4993141198454222</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.045876</v>
+        <v>0.03644433333333334</v>
       </c>
       <c r="N4">
-        <v>0.137628</v>
+        <v>0.109333</v>
       </c>
       <c r="O4">
-        <v>0.0007160953547450342</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="P4">
-        <v>0.0007226398223625426</v>
+        <v>0.0006745344481176041</v>
       </c>
       <c r="Q4">
-        <v>0.012663136988</v>
+        <v>0.01008735413466667</v>
       </c>
       <c r="R4">
-        <v>0.113968232892</v>
+        <v>0.09078618721200001</v>
       </c>
       <c r="S4">
-        <v>0.0003575565217799121</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="T4">
-        <v>0.0003608242668682052</v>
+        <v>0.0006745344481176041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H5">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I5">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,400 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7405575</v>
+        <v>1.706962</v>
       </c>
       <c r="N5">
-        <v>3.481115</v>
+        <v>3.413924</v>
       </c>
       <c r="O5">
-        <v>0.02716900210167909</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="P5">
-        <v>0.01827820156671304</v>
+        <v>0.02106234477472898</v>
       </c>
       <c r="Q5">
-        <v>0.4804455065391666</v>
+        <v>0.4724665980559999</v>
       </c>
       <c r="R5">
-        <v>2.882673039234999</v>
+        <v>2.834799588336</v>
       </c>
       <c r="S5">
-        <v>0.01356586637147832</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="T5">
-        <v>0.009126564127640537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.2760296666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.828089</v>
-      </c>
-      <c r="I6">
-        <v>0.4993141198454222</v>
-      </c>
-      <c r="J6">
-        <v>0.4993141198454222</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.03279</v>
-      </c>
-      <c r="N6">
-        <v>0.09837</v>
-      </c>
-      <c r="O6">
-        <v>0.0005118311684124525</v>
-      </c>
-      <c r="P6">
-        <v>0.0005165088450446371</v>
-      </c>
-      <c r="Q6">
-        <v>0.00905101277</v>
-      </c>
-      <c r="R6">
-        <v>0.08145911492999999</v>
-      </c>
-      <c r="S6">
-        <v>0.0002555645293653178</v>
-      </c>
-      <c r="T6">
-        <v>0.0002579001593558385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.276788</v>
-      </c>
-      <c r="H7">
-        <v>0.830364</v>
-      </c>
-      <c r="I7">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J7">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>58.63918933333334</v>
-      </c>
-      <c r="N7">
-        <v>175.917568</v>
-      </c>
-      <c r="O7">
-        <v>0.9153206706690767</v>
-      </c>
-      <c r="P7">
-        <v>0.923685878527411</v>
-      </c>
-      <c r="Q7">
-        <v>16.23062393719467</v>
-      </c>
-      <c r="R7">
-        <v>146.075615434752</v>
-      </c>
-      <c r="S7">
-        <v>0.458288135617625</v>
-      </c>
-      <c r="T7">
-        <v>0.4624764770768512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.276788</v>
-      </c>
-      <c r="H8">
-        <v>0.830364</v>
-      </c>
-      <c r="I8">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J8">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3.605681</v>
-      </c>
-      <c r="N8">
-        <v>10.817043</v>
-      </c>
-      <c r="O8">
-        <v>0.05628240070608662</v>
-      </c>
-      <c r="P8">
-        <v>0.0567967712384688</v>
-      </c>
-      <c r="Q8">
-        <v>0.998009232628</v>
-      </c>
-      <c r="R8">
-        <v>8.982083093651999</v>
-      </c>
-      <c r="S8">
-        <v>0.02817980333473961</v>
-      </c>
-      <c r="T8">
-        <v>0.02843734139747096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.276788</v>
-      </c>
-      <c r="H9">
-        <v>0.830364</v>
-      </c>
-      <c r="I9">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J9">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.045876</v>
-      </c>
-      <c r="N9">
-        <v>0.137628</v>
-      </c>
-      <c r="O9">
-        <v>0.0007160953547450342</v>
-      </c>
-      <c r="P9">
-        <v>0.0007226398223625426</v>
-      </c>
-      <c r="Q9">
-        <v>0.012697926288</v>
-      </c>
-      <c r="R9">
-        <v>0.114281336592</v>
-      </c>
-      <c r="S9">
-        <v>0.000358538832965122</v>
-      </c>
-      <c r="T9">
-        <v>0.0003618155554943374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.276788</v>
-      </c>
-      <c r="H10">
-        <v>0.830364</v>
-      </c>
-      <c r="I10">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J10">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.7405575</v>
-      </c>
-      <c r="N10">
-        <v>3.481115</v>
-      </c>
-      <c r="O10">
-        <v>0.02716900210167909</v>
-      </c>
-      <c r="P10">
-        <v>0.01827820156671304</v>
-      </c>
-      <c r="Q10">
-        <v>0.4817654293099999</v>
-      </c>
-      <c r="R10">
-        <v>2.89059257586</v>
-      </c>
-      <c r="S10">
-        <v>0.01360313573020077</v>
-      </c>
-      <c r="T10">
-        <v>0.009151637439072501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.276788</v>
-      </c>
-      <c r="H11">
-        <v>0.830364</v>
-      </c>
-      <c r="I11">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J11">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.03279</v>
-      </c>
-      <c r="N11">
-        <v>0.09837</v>
-      </c>
-      <c r="O11">
-        <v>0.0005118311684124525</v>
-      </c>
-      <c r="P11">
-        <v>0.0005165088450446371</v>
-      </c>
-      <c r="Q11">
-        <v>0.009075878519999999</v>
-      </c>
-      <c r="R11">
-        <v>0.08168290668</v>
-      </c>
-      <c r="S11">
-        <v>0.0002562666390471347</v>
-      </c>
-      <c r="T11">
-        <v>0.0002586086856887986</v>
+        <v>0.02106234477472898</v>
       </c>
     </row>
   </sheetData>
